--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="食物" sheetId="1" r:id="rId1"/>
     <sheet name="物品" sheetId="2" r:id="rId2"/>
     <sheet name="朋友" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="等級" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>食物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,46 @@
   </si>
   <si>
     <t>(+)HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型生命恢復藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型生命恢復藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型生命恢復藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全恢復藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion_medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion_large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portion_full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,12 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,8 +686,64 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10">
-        <v>100</v>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
@@ -679,20 +783,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
+    <row r="1" spans="1:5" ht="24">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -700,133 +804,167 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
+        <f>B4+C5</f>
+        <v>36</v>
+      </c>
+      <c r="C5">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <f t="shared" ref="B6:B11" si="0">B5+C6</f>
+        <v>79.2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <f>C5*1.8</f>
+        <v>43.2</v>
       </c>
       <c r="D6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f>E6-E5</f>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>156.96</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <f>C6*1.8</f>
+        <v>77.760000000000005</v>
       </c>
       <c r="D7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <f t="shared" ref="D7:D11" si="1">E7-E6</f>
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>296.928</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <f t="shared" ref="C8:C11" si="2">C7*1.8</f>
+        <v>139.96800000000002</v>
       </c>
       <c r="D8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <f>96*2</f>
-        <v>192</v>
+        <f t="shared" si="0"/>
+        <v>548.87040000000002</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>251.94240000000005</v>
       </c>
       <c r="D9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <f>B9*2</f>
-        <v>384</v>
+        <f t="shared" si="0"/>
+        <v>1002.3667200000001</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>453.49632000000008</v>
       </c>
       <c r="D10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="E10">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <f>B10*2</f>
-        <v>768</v>
+        <f t="shared" si="0"/>
+        <v>1818.6600960000003</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>816.29337600000019</v>
       </c>
       <c r="D11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="E11">
+        <v>2880</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="食物" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -684,7 +684,7 @@
         <v>600</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>34</v>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,11 +848,11 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B11" si="0">B5+C6</f>
-        <v>79.2</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <f>C5*1.8</f>
-        <v>43.2</v>
+        <f>C5*2</f>
+        <v>48</v>
       </c>
       <c r="D6">
         <f>E6-E5</f>
@@ -868,14 +868,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>156.96</v>
+        <v>180</v>
       </c>
       <c r="C7">
-        <f>C6*1.8</f>
-        <v>77.760000000000005</v>
+        <f t="shared" ref="C7:C11" si="1">C6*2</f>
+        <v>96</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">E7-E6</f>
+        <f t="shared" ref="D7:D11" si="2">E7-E6</f>
         <v>90</v>
       </c>
       <c r="E7">
@@ -888,14 +888,14 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>296.928</v>
+        <v>372</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="2">C7*1.8</f>
-        <v>139.96800000000002</v>
+        <f t="shared" si="1"/>
+        <v>192</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E8">
@@ -908,14 +908,14 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>548.87040000000002</v>
+        <v>756</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>251.94240000000005</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="E9">
@@ -928,14 +928,14 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1002.3667200000001</v>
+        <v>1524</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>768</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="2"/>
-        <v>453.49632000000008</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="E10">
@@ -948,14 +948,14 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1818.6600960000003</v>
+        <v>3060</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1536</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="2"/>
-        <v>816.29337600000019</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
         <v>1440</v>
       </c>
       <c r="E11">
